--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,96%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,87%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>17,93%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>9,16; 15,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,5</t>
+          <t>9,35; 16,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 15,56</t>
+          <t>10,37; 16,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,47</t>
+          <t>8,66; 16,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>10,16; 17,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,14</t>
+          <t>20,29; 26,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,77</t>
+          <t>9,62; 14,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 26,58</t>
+          <t>10,6; 15,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 14,52</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>10,5; 15,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,79; 20,26</t>
+          <t>15,78; 20,3</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>15,94%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>13,17%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>20,63%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>10,26; 17,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,78</t>
+          <t>8,84; 15,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 15,8</t>
+          <t>12,22; 18,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,47</t>
+          <t>15,01; 23,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>10,87; 18,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 23,9</t>
+          <t>23,08; 30,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,87</t>
+          <t>13,17; 18,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,48; 30,46</t>
+          <t>10,73; 15,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 19,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>10,75; 15,82</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>18,03; 23,36</t>
+          <t>18,23; 23,32</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>24,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>19,99%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>17,5%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>19,04; 26,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,26</t>
+          <t>13,32; 19,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 19,55</t>
+          <t>4,41; 20,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 20,03</t>
+          <t>23,27; 34,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>23,84; 39,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,01</t>
+          <t>33,6; 46,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,47; 40,16</t>
+          <t>21,5; 27,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 46,16</t>
+          <t>16,9; 23,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>21,38; 27,32</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 23,18</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 25,37</t>
+          <t>7,56; 25,79</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>20,16%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>22,42%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>17,49; 22,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 22,12</t>
+          <t>14,53; 18,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,97</t>
+          <t>20,0; 25,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 25,06</t>
+          <t>18,01; 24,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,7; 22,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,01</t>
+          <t>11,59; 29,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,79</t>
+          <t>18,14; 22,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 29,22</t>
+          <t>16,13; 19,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 22,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>16,09; 19,65</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>15,68; 25,66</t>
+          <t>16,01; 25,59</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>29,54%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>27,69%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>31,85%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>15,25; 21,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,9</t>
+          <t>17,36; 23,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 23,67</t>
+          <t>20,19; 28,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,88</t>
+          <t>33,23; 40,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>30,41; 37,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 40,45</t>
+          <t>26,03; 41,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 37,66</t>
+          <t>26,92; 32,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,98; 41,69</t>
+          <t>25,38; 30,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>27,1; 32,2</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>25,18; 30,25</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>26,32; 35,09</t>
+          <t>26,44; 35,23</t>
         </is>
       </c>
     </row>
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>31,02%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>25,37%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>29,93%</t>
         </is>
@@ -1424,62 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,16; 6,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,5</t>
+          <t>1,36; 5,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,37</t>
+          <t>5,29; 18,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,61; 18,47</t>
+          <t>34,83; 40,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,24; 34,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,79; 40,85</t>
+          <t>33,1; 39,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,12</t>
+          <t>28,62; 33,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,22; 39,69</t>
+          <t>22,9; 27,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 33,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>22,9; 27,86</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>26,93; 32,91</t>
+          <t>26,99; 32,68</t>
         </is>
       </c>
     </row>
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>23,19%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>20,42%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>23,87%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,62; 18,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,67; 18,32</t>
+          <t>13,79; 16,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,65; 16,15</t>
+          <t>13,07; 19,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 19,13</t>
+          <t>27,66; 30,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,13; 27,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,83</t>
+          <t>24,14; 32,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,05; 27,2</t>
+          <t>22,09; 24,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,64</t>
+          <t>19,48; 21,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>22,28; 24,28</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 21,45</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>20,21; 25,62</t>
+          <t>20,8; 25,81</t>
         </is>
       </c>
     </row>
@@ -1632,18 +1399,1305 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52390</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52401</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>66359</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37529</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47508</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>104487</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89920</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99909</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170846</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40059; 68851</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40137; 68942</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52374; 82941</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27239; 52017</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35248; 61790</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90813; 120587</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72290; 111179</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>82288; 121722</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>150331; 193438</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56324</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>44842</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69547</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64279</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>53903</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>102667</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>120603</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98746</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>172214</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42961; 73658</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33356; 59676</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55262; 83490</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50734; 80616</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40449; 69992</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>88282; 116762</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99707; 143211</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80384; 117958</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>152192; 194677</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>140775</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>84965</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80312</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>74922</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52599</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65829</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>215697</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>137564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>146141</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>119842; 165294</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69545; 100510</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29447; 134254</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60533; 90808</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39607; 65695</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56076; 77241</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>191211; 244992</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>116274; 159682</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63146; 215422</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>228375</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>190719</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>230186</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>161784</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>221085</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>388182</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>352502</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>451271</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>202727; 260073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>167055; 215466</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>206964; 261505</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>138044; 185396</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>137913; 185119</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>113357; 289833</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>349224; 425029</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>318637; 384562</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>322296; 515032</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>94555</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>125543</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>113103</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>281204</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>250712</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>306160</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>375759</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>376255</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>419263</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>77847; 112096</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107724; 147399</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95895; 133776</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>253045; 309143</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>224507; 277568</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>219040; 350300</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>342418; 407647</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>344860; 411761</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>348098; 463818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8056</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23504</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>418736</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>339367</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>276317</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>426912</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>347423</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>299820</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3084; 17362</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3913; 14913</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12722; 44187</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>386413; 451880</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>305575; 370261</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>251996; 300205</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>393833; 465647</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>313586; 380894</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>270406; 327369</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2639</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>580596</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>506527</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>583011</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1036477</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>905872</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1076544</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1617073</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1412399</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1659555</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>534346; 628361</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>466936; 550393</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>441164; 647362</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>981902; 1088258</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>852059; 961894</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>863664; 1169995</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1540170; 1686798</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1347455; 1486860</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1446583; 1794941</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
